--- a/docs/dataset_related_documents/Emotions_to_Genre.xlsx
+++ b/docs/dataset_related_documents/Emotions_to_Genre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adcsuf-my.sharepoint.com/personal/njain_fullerton_edu/Documents/SPRING 2024/CPSC 597 Project/Project/APMBSS/docs/dataset_related_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104851695A599E5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF7F9BE2-9FDE-4E18-8068-F4DEDF6555BD}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="11_F25DC773A252ABDACC104851695A599E5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEACD0A-254A-4A95-AAE4-543442B6E1EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Emotions</t>
   </si>
@@ -91,13 +91,124 @@
   </si>
   <si>
     <t>Sad, Sleep, Acoustics</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Genres</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>energetic</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Acoustic
+Ambient
+Bossanova
+Chill
+Classical
+Jazz
+New Age
+Piano
+Relax
+Sleep
+Soundtracks
+Study</t>
+  </si>
+  <si>
+    <t>Afrobeat
+Bossanova
+Cantopop
+Children
+Disco
+Disney
+EDM
+Electro
+Electronic
+Funk
+Happy
+Indie-Pop
+J-Pop
+K-Pop
+Latin
+Latino
+Party
+Pop
+Power-Pop
+Salsa
+Samba
+Summer
+Swedish</t>
+  </si>
+  <si>
+    <t>Alt-Rock
+Alternative
+Breakbeat
+Dance
+Dancehall
+Drum-and-Bass
+Dubstep
+Electro
+Electronic
+Hardcore
+Hardstyle
+Hip-Hop
+Indie
+Indie-Pop
+J-Dance
+J-Pop
+J-Rock
+Pop
+Progressive-House
+Rock
+Rock-n-Roll
+Techno
+Trance
+Trip-Hop
+Work-Out</t>
+  </si>
+  <si>
+    <t>Blues
+Country
+Emo
+Gothic
+Grunge
+Heavy-Metal
+Indie
+Metal
+Metal-Misc
+Metalcore
+Punk
+Punk-Rock
+RnB
+Rainy-Day
+Reggae
+Reggaeton
+Rock
+Sad
+Singer-Songwriter
+Soul
+Soundtracks
+Spanish
+Study
+Turkish
+World-Music</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,23 +217,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,17 +257,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -154,6 +310,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,104 +579,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/dataset_related_documents/Emotions_to_Genre.xlsx
+++ b/docs/dataset_related_documents/Emotions_to_Genre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adcsuf-my.sharepoint.com/personal/njain_fullerton_edu/Documents/SPRING 2024/CPSC 597 Project/Project/APMBSS/docs/dataset_related_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="11_F25DC773A252ABDACC104851695A599E5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEACD0A-254A-4A95-AAE4-543442B6E1EF}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="11_F25DC773A252ABDACC104851695A599E5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33CFB18B-811D-4060-9728-87C5BFD37AE9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6225" yWindow="2835" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,72 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Emotions</t>
   </si>
   <si>
     <t>Genre</t>
-  </si>
-  <si>
-    <t>Hard-Rock, Electro</t>
-  </si>
-  <si>
-    <t>(E, E)</t>
-  </si>
-  <si>
-    <t>(E, H) | (H, E)</t>
-  </si>
-  <si>
-    <t>Club, Pop, Funk</t>
-  </si>
-  <si>
-    <t>(E, C) | (C, E)</t>
-  </si>
-  <si>
-    <t>(E, S) | (S, E)</t>
-  </si>
-  <si>
-    <t>Dancehall, Trip-Hop</t>
-  </si>
-  <si>
-    <t>Indie, Alternative</t>
-  </si>
-  <si>
-    <t>(H, H)</t>
-  </si>
-  <si>
-    <t>(H, C) | (C, H)</t>
-  </si>
-  <si>
-    <t>(H, S) | (S, H)</t>
-  </si>
-  <si>
-    <t>(C, C)</t>
-  </si>
-  <si>
-    <t>(C, S) | (S, C)</t>
-  </si>
-  <si>
-    <t>(S, S)</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>Blues</t>
-  </si>
-  <si>
-    <t>Raggae</t>
-  </si>
-  <si>
-    <t>Blues, Chill</t>
-  </si>
-  <si>
-    <t>Chill, Romance</t>
-  </si>
-  <si>
-    <t>Sad, Sleep, Acoustics</t>
   </si>
   <si>
     <t>Categories</t>
@@ -183,6 +123,247 @@
 Gothic
 Grunge
 Heavy-Metal
+Indie
+Metal
+Metal-Misc
+Metalcore
+Punk
+Punk-Rock
+RnB
+Rainy-Day
+Reggae
+Reggaeton
+Rock
+Sad
+Singer-Songwriter
+Soul
+Soundtracks
+Spanish
+Study
+Turkish
+World-Music</t>
+  </si>
+  <si>
+    <t>(energetic, energetic)</t>
+  </si>
+  <si>
+    <t>(energetic, happy) | (happy, energetic)</t>
+  </si>
+  <si>
+    <t>(energetic, calm) | (calm, energetic)</t>
+  </si>
+  <si>
+    <t>(energetic, sad) | (sad, energetic)</t>
+  </si>
+  <si>
+    <t>(happy, happy)</t>
+  </si>
+  <si>
+    <t>(happy, calm) | (calm, happy)</t>
+  </si>
+  <si>
+    <t>(happy, sad) | (sad, happy)</t>
+  </si>
+  <si>
+    <t>(calm, calm)</t>
+  </si>
+  <si>
+    <t>(calm, sad) | (sad, calm)</t>
+  </si>
+  <si>
+    <t>(sad, sad)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Mood A</t>
+  </si>
+  <si>
+    <t>Mood H</t>
+  </si>
+  <si>
+    <t>Mood B</t>
+  </si>
+  <si>
+    <t>Mood C</t>
+  </si>
+  <si>
+    <t>Mood D</t>
+  </si>
+  <si>
+    <t>Mood E</t>
+  </si>
+  <si>
+    <t>Mood F</t>
+  </si>
+  <si>
+    <t>Mood G</t>
+  </si>
+  <si>
+    <t>Mood I</t>
+  </si>
+  <si>
+    <t>Mood J</t>
+  </si>
+  <si>
+    <t>EDM
+Electro
+Electronic
+Hardcore
+Hardstyle
+Indie-Pop
+J-Dance
+J-Pop
+J-Rock
+Party
+Pop
+Progressive-House
+Rock
+Techno
+Trance
+Work-Out</t>
+  </si>
+  <si>
+    <t>Disco
+Funk
+Happy
+Indie-Pop
+J-Pop
+K-Pop
+Party
+Pop
+Power-Pop</t>
+  </si>
+  <si>
+    <t>Ambient
+Bossanova
+Chill
+Classical
+New Age
+Piano
+Relax
+Soundtracks
+Afrobeat
+Bossanova
+Cantopop
+Jazz
+Latin
+Latino
+Samba
+Summer
+Swedish</t>
+  </si>
+  <si>
+    <t>Alt-Rock
+Alternative
+Indie
+Rock
+Metal
+Metal-Misc
+Metalcore
+Punk
+Punk-Rock</t>
+  </si>
+  <si>
+    <t>Disney
+Indie-Pop
+J-Pop
+K-Pop
+Pop
+Salsa
+Summer
+Swedish
+Alt-Rock
+Alternative
+Dance
+Indie
+J-Dance
+J-Pop
+J-Rock
+Pop
+Progressive-House
+Rock</t>
+  </si>
+  <si>
+    <t>Acoustic
+Ambient
+Bossanova
+Chill
+Classical
+New Age
+Piano
+Relax
+Soundtracks
+Afrobeat
+Bossanova
+Cantopop
+Jazz
+Latin
+Latino
+Samba
+Summer
+Swedish</t>
+  </si>
+  <si>
+    <t>Indie
+Indie-Pop
+J-Pop
+Pop
+Rock
+Sad</t>
+  </si>
+  <si>
+    <t>Acoustic
+Ambient
+Bossanova
+Chill
+Classical
+New Age
+Piano
+Relax
+Soundtracks
+Study
+Blues
+Country
+Emo
+Gothic
+Grunge
+Indie
+Singer-Songwriter
+Soul
+Soundtracks
+Rainy-Day
+Reggae
+Reggaeton
+Rock
+Spanish
+Study
+Turkish
+World-Music</t>
+  </si>
+  <si>
+    <t>Blues
+Country
+Emo
+Gothic
+Grunge
+Indie
+Singer-Songwriter
+Soul
+Soundtracks
+Rainy-Day
+Reggae
+Reggaeton
+Rock
+Sad</t>
+  </si>
+  <si>
+    <t>Blues
+Country
+Emo
+Gothic
+Grunge
 Indie
 Metal
 Metal-Misc
@@ -278,7 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +473,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -581,14 +768,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1"/>
@@ -598,142 +784,175 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
